--- a/biology/Zoologie/Bradyporinae/Bradyporinae.xlsx
+++ b/biology/Zoologie/Bradyporinae/Bradyporinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bradyporinae sont une sous-famille d'orthoptères de la famille des Tettigoniidae. Elle est parfois considérée comme une famille, celle des Bradyporidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent en Europe, au nord de l'Afrique et en Asie.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des éphippigères, des sauterelles aux ailes atrophiées.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des tribus et genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Orthoptera Species File (16/08/2017)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Orthoptera Species File (16/08/2017) :
 Bradyporini Burmeister, 1838
 Bradyporus Charpentier, 1825
 Pycnogaster Graells, 1851
@@ -638,7 +656,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Burmeister, 1838 : Handbuch der Entomologie. vol. 2, part. 2, n. 1 (texte original).
 Sur les autres projets Wikimedia :
